--- a/biology/Botanique/Arctomecon_merriamii/Arctomecon_merriamii.xlsx
+++ b/biology/Botanique/Arctomecon_merriamii/Arctomecon_merriamii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctomecon merriamii est une plante de la famille des Papaveraceae, originaire des États-Unis.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 20 à 50 cm de hauteur est formée d'une touffe de feuilles très velues d'où partent des tiges florales plutôt grêles. Les feuilles de 2,5 à 7,5 cm de long, ont la forme d'un éventail étroit et allongé, et peuvent avoir leur extrémité en pointe ou émoussée. Elles sont d'un bleu-vert rendu grisâtre par de longs poils droits. Les tiges florales sont d'un vert tendre plus franc et sont glabres[1].
-Appareil reproducteur
-La floraison a lieu en avril-mai. L'inflorescence est une fleur blanche isolée au sommet de chaque tige florale. Chaque fleur mesure entre 5 et 7,5 cm de diamètre. Le calice est constitué de 3 sépales velus qui tombent quand la fleur est pleinement ouverte. La corolle est constituée de 6 pétales chiffonnés, blancs, plus larges à leur extrémité qu'à leur base. Les étamines sont nombreuses, de couleur jaune[1] et entourent l'ovaire supère surmonté de styles courts.
-Le fruit est une capsule contenant de nombreuses graines noires et luisantes.
-Espèces proches
-Arctomecon humilis est une plante plus petite (généralement moins de 25 cm de hauteur) et ne possède que 4 pétales blancs ; on ne la trouve de plus qu'en Arizona et dans l'Utah. Arctomecon californica a elle aussi 6 pétales, mais jaunes.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 20 à 50 cm de hauteur est formée d'une touffe de feuilles très velues d'où partent des tiges florales plutôt grêles. Les feuilles de 2,5 à 7,5 cm de long, ont la forme d'un éventail étroit et allongé, et peuvent avoir leur extrémité en pointe ou émoussée. Elles sont d'un bleu-vert rendu grisâtre par de longs poils droits. Les tiges florales sont d'un vert tendre plus franc et sont glabres.
 </t>
         </is>
       </c>
@@ -545,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante pousse dans les pentes caillouteuses, éboulis et zones désertiques du sud-est de la Californie et du sud du Nevada, aux États-Unis.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu en avril-mai. L'inflorescence est une fleur blanche isolée au sommet de chaque tige florale. Chaque fleur mesure entre 5 et 7,5 cm de diamètre. Le calice est constitué de 3 sépales velus qui tombent quand la fleur est pleinement ouverte. La corolle est constituée de 6 pétales chiffonnés, blancs, plus larges à leur extrémité qu'à leur base. Les étamines sont nombreuses, de couleur jaune et entourent l'ovaire supère surmonté de styles courts.
+Le fruit est une capsule contenant de nombreuses graines noires et luisantes.
 </t>
         </is>
       </c>
@@ -576,12 +595,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces proches</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctomecon humilis est une plante plus petite (généralement moins de 25 cm de hauteur) et ne possède que 4 pétales blancs ; on ne la trouve de plus qu'en Arizona et dans l'Utah. Arctomecon californica a elle aussi 6 pétales, mais jaunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arctomecon_merriamii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arctomecon_merriamii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans les pentes caillouteuses, éboulis et zones désertiques du sud-est de la Californie et du sud du Nevada, aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arctomecon_merriamii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arctomecon_merriamii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxinomie et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arctomecon merriamii a été décrite scientifiquement pour la première fois en 1892 par le botaniste américain Frederick Vernon Coville, dans les Proceedings of the Biological Society of Washington. Cette description a été réalisée à partir d'un échantillon-type rapporté par les zoologistes américains Clinton Hart Merriam et Vernon Orlando Bailey, à la suite d'une expédition dans la vallée de la Mort, Californie[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctomecon merriamii a été décrite scientifiquement pour la première fois en 1892 par le botaniste américain Frederick Vernon Coville, dans les Proceedings of the Biological Society of Washington. Cette description a été réalisée à partir d'un échantillon-type rapporté par les zoologistes américains Clinton Hart Merriam et Vernon Orlando Bailey, à la suite d'une expédition dans la vallée de la Mort, Californie.
 </t>
         </is>
       </c>
